--- a/www/ig/fhir/core/StructureDefinition-fr-core-practitioner.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-practitioner.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-practitioner.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>French profile of the Practitioner resource. This profile specifies the types of identifiers for practitioners in France.
-Profil de la ressource Practitionner pour la France. Ce profil contraint les types d'identifiants du professionnel de santé en France</t>
+    <t>Profil de la ressource Practitionner pour la France.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -263,10 +262,10 @@
 </t>
   </si>
   <si>
-    <t>A person with a  formal responsibility in the provisioning of healthcare or related services | Prestataire de santé</t>
-  </si>
-  <si>
-    <t>A person who is directly or indirectly involved in the provisioning of healthcare | Un professionnel impliqué directement ou indirectement dans la prise en charge d'une personne.</t>
+    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
+  </si>
+  <si>
+    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -1403,6 +1402,10 @@
     <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:code.coding}
+</t>
+  </si>
+  <si>
     <t>CER?</t>
   </si>
   <si>
@@ -1459,40 +1462,245 @@
     <t>Coded representation of the qualification.</t>
   </si>
   <si>
+    <t>Specific qualification the practitioner has to provide a service.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+  </si>
+  <si>
+    <t>./Qualifications.Value</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.period</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid.</t>
+  </si>
+  <si>
+    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+  </si>
+  <si>
+    <t>.playingEntity.playingRole[classCode=QUAL].effectiveTime</t>
+  </si>
+  <si>
+    <t>./Qualifications.StartDate and ./Qualifications.EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification.</t>
+  </si>
+  <si>
+    <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>Diplôme et type de diplôme, par exemple : DE, DES, CES, etc. (typeDiplome)</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.code.coding</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.code.coding:degreeType</t>
+  </si>
+  <si>
+    <t>degreeType</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.code.coding:degree</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS</t>
   </si>
   <si>
-    <t>./Qualifications.Value</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.period</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid.</t>
-  </si>
-  <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].effectiveTime</t>
-  </si>
-  <si>
-    <t>./Qualifications.StartDate and ./Qualifications.EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.issuer</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification.</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
+    <t>Practitioner.qualification:degree.code.text</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.code.text</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:degree.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro</t>
+  </si>
+  <si>
+    <t>exercicePro</t>
+  </si>
+  <si>
+    <t>exercicePro : exercice professionnel décrivant la profession exercée, l'identité d'exercice d'un professionnel et le cadre de son exercice (civil, militaire, etc.).</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.code.coding:categorieProfession</t>
+  </si>
+  <si>
+    <t>categorieProfession</t>
+  </si>
+  <si>
+    <t>Catégorie professionnelle indiquant si le professionnel exerce sa profession en tant que Militaire, Civil, Fonctionnaire ou Etudiant (categorieProfessionnelle).</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.code.coding:profession</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>Profession exercée : de santé (professionSante) TRE G15, du social (professionSocial) TRE R94, à usage de titre professionnel (usagerTitre) TRE R95, ou autre profession (autreProfession) TRE R291</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.code.text</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:exercicePro.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire</t>
+  </si>
+  <si>
+    <t>savoirFaire</t>
+  </si>
+  <si>
+    <t>savoirFaire : Prérogatives d'exercice d'un professionnel reconnues par une autorité d'enregistrement sur une période donnée de son exercice professionnel, par exemple les spécialités ordinales, etc.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.code.coding:typeSavoirFaire</t>
+  </si>
+  <si>
+    <t>typeSavoirFaire</t>
+  </si>
+  <si>
+    <t>Le type de savoir-faire (qualifications/autres attributions).
+typeSavoirFaire</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.code.coding:savoirFaire</t>
+  </si>
+  <si>
+    <t>Compétence acquise par le professionnel (competence) R39 ou Compétence exclusive exercée par le professionnel à titre exclusif (competenceExclusive) R40 ou Diplôme d'études spécialisées complémentaires (DESC)DESCnonQualifian R42 ou Capacité (savoir-faire)de médecine (capaciteSavoirFaire) R43 ou Qualification de praticien adjoint contractuel (qualificationPAC) R44 ou Fonction qualifiée (Synonyme: fonctionQualifiee) R45 ou Droit d'exercice complémentaire (Synonyme: droitExerciceComplementaire) R97 ou Orientation particulière (Synonyme: orientationParticuliere) G13 ou Activité ponctuelle du professionnel de type expertise (attributionParticuliere) G13.</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.code.text</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:savoirFaire.issuer</t>
   </si>
   <si>
     <t>Practitioner.communication</t>
@@ -1829,7 +2037,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1838,9 +2046,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.6328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.89453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.51953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1863,7 +2071,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="98.1796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="108.0546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -10416,16 +10624,14 @@
         <v>78</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>439</v>
@@ -10443,13 +10649,13 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10457,10 +10663,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10569,10 +10775,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10683,14 +10889,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10712,10 +10918,10 @@
         <v>110</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>113</v>
@@ -10770,7 +10976,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10799,10 +11005,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10828,14 +11034,14 @@
         <v>209</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -10884,7 +11090,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -10902,7 +11108,7 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -10913,10 +11119,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10942,10 +11148,10 @@
         <v>232</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10972,11 +11178,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y80" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="Z80" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -10994,7 +11202,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11012,10 +11220,10 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11023,10 +11231,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11052,14 +11260,14 @@
         <v>319</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11108,7 +11316,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11126,10 +11334,10 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11137,10 +11345,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11166,10 +11374,10 @@
         <v>327</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11220,7 +11428,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11238,7 +11446,7 @@
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11249,12 +11457,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11275,20 +11485,16 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>232</v>
+        <v>440</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11312,13 +11518,13 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11336,7 +11542,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11351,15 +11557,4805 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="B84" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="B85" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="B86" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AC91" s="2"/>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y92" s="2"/>
+      <c r="Z92" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y93" s="2"/>
+      <c r="Z93" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AC105" s="2"/>
+      <c r="AD105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y106" s="2"/>
+      <c r="Z106" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y107" s="2"/>
+      <c r="Z107" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AC119" s="2"/>
+      <c r="AD119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y120" s="2"/>
+      <c r="Z120" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y121" s="2"/>
+      <c r="Z121" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN125" t="s" s="2">
         <v>78</v>
       </c>
     </row>
